--- a/Gráficas/Performance per 30 matches/Gráficas.xlsx
+++ b/Gráficas/Performance per 30 matches/Gráficas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\La Cima del Éxito\Futbol\Gráficas\Performance per 30 matches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC48BD2-29FB-4CCD-9052-AFC115573333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C77114-E594-47F8-BDEB-4AC6357DC912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{062E0EC3-8B49-4AA9-B55F-037D16D68A6A}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <sheet name="Miguel Herrera" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -207,7 +208,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400" baseline="0"/>
@@ -568,7 +579,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200" b="1" i="0" baseline="0">
@@ -721,7 +742,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400">
@@ -1097,7 +1128,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -1245,7 +1286,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400"/>
@@ -1729,7 +1780,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -1940,7 +2001,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400"/>
@@ -2610,7 +2681,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -2795,7 +2876,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400">
@@ -3121,7 +3212,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -3263,7 +3364,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -3411,7 +3522,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400" baseline="0"/>
@@ -4114,7 +4235,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200" b="1" i="0" baseline="0">
@@ -4331,7 +4462,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400">
@@ -4865,7 +5006,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -5018,7 +5169,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400"/>
@@ -5781,7 +5942,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -5998,7 +6169,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400">
@@ -6463,7 +6644,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -6617,7 +6808,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400"/>
@@ -7347,7 +7548,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1400" b="1" i="0" baseline="0">
@@ -7536,7 +7747,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400">
@@ -8095,7 +8316,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200" b="1" i="0" baseline="0">
@@ -8642,7 +8873,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400"/>
@@ -9309,7 +9550,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -9494,7 +9745,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400">
@@ -9845,7 +10106,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -9987,7 +10258,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -10136,7 +10417,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400"/>
@@ -10737,7 +11028,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -10884,7 +11185,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200" b="1" i="0" baseline="0">
@@ -11101,7 +11412,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400">
@@ -11485,7 +11806,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -11626,7 +11957,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -11635,7 +11976,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="es-MX" sz="1200"/>
               </a:p>
@@ -11785,7 +12136,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400" b="1" i="0" baseline="0">
@@ -12548,7 +12909,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -12699,7 +13070,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200" b="1" i="0" baseline="0">
@@ -12889,7 +13270,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400">
@@ -13639,7 +14030,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
@@ -13788,7 +14189,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400"/>
@@ -14262,7 +14673,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200" b="1" i="0" baseline="0">
@@ -14479,7 +14900,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX" sz="1400">
@@ -15133,7 +15564,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" sz="1200"/>
